--- a/WeeklyReport_BATeam/Parameter.xlsx
+++ b/WeeklyReport_BATeam/Parameter.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="11412"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22992" windowHeight="11412" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="MemberList" sheetId="3" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>Var</t>
   </si>
@@ -37,9 +37,6 @@
     <t>refereeMail</t>
   </si>
   <si>
-    <t>thanhdq27@gmail.com</t>
-  </si>
-  <si>
     <t>consolidatedReportTemplatePath</t>
   </si>
   <si>
@@ -55,9 +52,6 @@
     <t>reconcileTime</t>
   </si>
   <si>
-    <t>10:36:00</t>
-  </si>
-  <si>
     <t>memberReportFolderPath</t>
   </si>
   <si>
@@ -86,6 +80,69 @@
   </si>
   <si>
     <t>Nguyễn Quốc Duy</t>
+  </si>
+  <si>
+    <t>anhtk@hpt.vn</t>
+  </si>
+  <si>
+    <t>Trần Kim Anh</t>
+  </si>
+  <si>
+    <t>tuoitt@hpt.vn</t>
+  </si>
+  <si>
+    <t>Tạ Thị Tươi</t>
+  </si>
+  <si>
+    <t>lanlm@hpt.vn</t>
+  </si>
+  <si>
+    <t>Lê Mai Lan</t>
+  </si>
+  <si>
+    <t>hanglt@hpt.vn</t>
+  </si>
+  <si>
+    <t>Lưu Thị Hằng</t>
+  </si>
+  <si>
+    <t>yennth1@hpt.vn</t>
+  </si>
+  <si>
+    <t>Nguyễn Thị Hải Yến</t>
+  </si>
+  <si>
+    <t>luanth@hpt.vn</t>
+  </si>
+  <si>
+    <t>Trần Hoàng Luân</t>
+  </si>
+  <si>
+    <t>Nguyễn Tấn Tài</t>
+  </si>
+  <si>
+    <t>ntduong@hpt.vn</t>
+  </si>
+  <si>
+    <t>Nhữ Thùy Dương</t>
+  </si>
+  <si>
+    <t>quangdh@hpt.vn</t>
+  </si>
+  <si>
+    <t>Đặng Hồng Quang</t>
+  </si>
+  <si>
+    <t>quynhnh@hpt.vn</t>
+  </si>
+  <si>
+    <t>Nhữ Hương Quỳnh</t>
+  </si>
+  <si>
+    <t>nttai@hpt.vn</t>
+  </si>
+  <si>
+    <t>00:00:00</t>
   </si>
 </sst>
 </file>
@@ -404,42 +461,128 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="14.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>18</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>
@@ -451,9 +594,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="28.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -468,39 +616,39 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
